--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81628.66317013791</v>
+        <v>15411394.9420921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>81628.66317013791</v>
+        <v>15411394.9420921</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231716.9799945626</v>
+        <v>27143446.99495528</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>231716.9799945626</v>
+        <v>27143446.99495528</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1491065991.715216</v>
+        <v>31492634.82518515</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17709.11055913751</v>
+        <v>879899.7242879525</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34074.26281602298</v>
+        <v>1539133.476032418</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50486.6609776388</v>
+        <v>2198367.227776883</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66122.0261286811</v>
+        <v>2857357.698324222</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>81757.85692448899</v>
+        <v>3516397.527216718</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>97393.68772029692</v>
+        <v>4175437.356109215</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113029.7361289853</v>
+        <v>4834477.185001713</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>128665.3493119128</v>
+        <v>5493517.01389421</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>144876.2612914988</v>
+        <v>5785023.631531268</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>161694.4104073156</v>
+        <v>6169116.05540781</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>178512.5595231324</v>
+        <v>6553208.479284353</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>195330.7086389492</v>
+        <v>6937300.90316089</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>212148.8577547659</v>
+        <v>7321393.327037421</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>229380.8733384455</v>
+        <v>7619417.430913952</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>246766.8624542624</v>
+        <v>7938958.614790483</v>
       </c>
     </row>
   </sheetData>
